--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251007_201449.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251007_201449.xlsx
@@ -5259,7 +5259,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
